--- a/src/experiment/results/average_metrics_mean_format_per_model_dataset.xlsx
+++ b/src/experiment/results/average_metrics_mean_format_per_model_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,15 +466,10 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Average train_time</t>
+          <t>Average num_features</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Average num_features</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> Average Overlap Ratio</t>
         </is>
@@ -513,15 +508,10 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100.65</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>815.00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>64.62</t>
         </is>
@@ -560,15 +550,10 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>99.44</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>998.33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>56.03</t>
         </is>
@@ -607,15 +592,10 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>98.61</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>880.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>59.12</t>
         </is>
@@ -654,15 +634,10 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>98.32</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>835.00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>53.48</t>
         </is>
@@ -701,15 +676,10 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>1163.33</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>52.51</t>
         </is>
@@ -748,15 +718,10 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>1288.33</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
         <is>
           <t>46.23</t>
         </is>
@@ -795,15 +760,10 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>926.67</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>55.44</t>
         </is>
@@ -842,15 +802,10 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>11.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>1108.33</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>47.26</t>
         </is>
@@ -889,15 +844,10 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18.44</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -936,15 +886,10 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -983,15 +928,10 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -1030,15 +970,10 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -1077,15 +1012,10 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>62.05</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
-        <is>
-          <t>915.00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
         <is>
           <t>68.33</t>
         </is>
@@ -1124,15 +1054,10 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>961.94</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
-        <is>
-          <t>745.00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>61.30</t>
         </is>
@@ -1171,15 +1096,10 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
-        <is>
-          <t>733.33</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
         <is>
           <t>62.83</t>
         </is>
@@ -1218,15 +1138,10 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>55.72</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
-        <is>
-          <t>908.33</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>48.53</t>
         </is>
@@ -1265,15 +1180,10 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>145.54</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
-        <is>
-          <t>743.33</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>64.64</t>
         </is>
@@ -1312,15 +1222,10 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>633.79</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
-        <is>
-          <t>833.33</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
         <is>
           <t>54.21</t>
         </is>
@@ -1359,15 +1264,10 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>46.67</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>663.33</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>62.52</t>
         </is>
@@ -1406,15 +1306,10 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>476.44</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
-        <is>
-          <t>515.00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>76.11</t>
         </is>
@@ -1453,15 +1348,10 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>32.94</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -1500,15 +1390,10 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31.00</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -1547,15 +1432,10 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>33.81</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -1594,15 +1474,10 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31.52</t>
+          <t>357.50</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>35750.00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
         <is>
           <t>30.63</t>
         </is>
@@ -1641,15 +1516,10 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6294.88</t>
+          <t>9.80</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>980.00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>54.64</t>
         </is>
@@ -1688,15 +1558,10 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>6151.00</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>1130.00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>47.28</t>
         </is>
@@ -1735,15 +1600,10 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6231.35</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
-        <is>
-          <t>783.33</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
         <is>
           <t>58.42</t>
         </is>
@@ -1782,15 +1642,10 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5746.42</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
-        <is>
-          <t>950.00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
         <is>
           <t>53.09</t>
         </is>
